--- a/BalanceSheet/ABMD_bal.xlsx
+++ b/BalanceSheet/ABMD_bal.xlsx
@@ -507,16 +507,16 @@
         <v>81000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>525000.0</v>
+        <v>82000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>6282000.0</v>
+        <v>83000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-211000.0</v>
+        <v>89000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>24000.0</v>
+        <v>90000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>91193000.0</v>
@@ -1901,16 +1901,16 @@
         <v>35000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1981000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-5670000.0</v>
+        <v>22000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-4458000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1740000.0</v>
+        <v>33000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>31566000.0</v>
@@ -3181,16 +3181,16 @@
         <v>-11000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>8733000.0</v>
+        <v>-17000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1241000.0</v>
+        <v>-25000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>12946000.0</v>
+        <v>-27000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2402000.0</v>
+        <v>-43000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>822000.0</v>
@@ -4846,7 +4846,7 @@
         <v>-430000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>-415000000.0</v>
+        <v>-414539000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>-445320000.0</v>
